--- a/documentacao/lista.xlsx
+++ b/documentacao/lista.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="48">
   <si>
     <t>NOME</t>
   </si>
@@ -46,15 +46,9 @@
     <t>Felipe Moysés</t>
   </si>
   <si>
-    <t>Victor Caetano</t>
-  </si>
-  <si>
     <t>Júlio Dias</t>
   </si>
   <si>
-    <t>Thiago Paschoal</t>
-  </si>
-  <si>
     <t>Víctor Gimenez</t>
   </si>
   <si>
@@ -64,12 +58,6 @@
     <t>E-MAIL</t>
   </si>
   <si>
-    <t>Guilherme Fermino</t>
-  </si>
-  <si>
-    <t>Ayo Agbedejobi</t>
-  </si>
-  <si>
     <t>LISTA DE ESPERA</t>
   </si>
   <si>
@@ -85,21 +73,9 @@
     <t>(11) 95894-0362</t>
   </si>
   <si>
-    <t>Carlos Prado</t>
-  </si>
-  <si>
-    <t>F CAMARA - 29/05/19</t>
-  </si>
-  <si>
-    <t>Erick Eiji nagao</t>
-  </si>
-  <si>
     <t>Fabiana Feitosa</t>
   </si>
   <si>
-    <t>Diego Giuseppe</t>
-  </si>
-  <si>
     <t>Guilherme innocencio</t>
   </si>
   <si>
@@ -112,75 +88,27 @@
     <t>Felipe Gadelha</t>
   </si>
   <si>
-    <t>Jackson Pereira da Silva</t>
-  </si>
-  <si>
-    <t>Emerson Barros</t>
-  </si>
-  <si>
-    <t>Paulo Andre Vicente Fernandes</t>
-  </si>
-  <si>
     <t>Thainá Ribeiro</t>
   </si>
   <si>
-    <t>Leandro Reis</t>
-  </si>
-  <si>
     <t>Luan de Oliveira</t>
   </si>
   <si>
-    <t>Douglas Santos</t>
-  </si>
-  <si>
-    <t>Pedro Maia Martins de Sousa</t>
-  </si>
-  <si>
     <t>Paulo Ricardo Pereira</t>
   </si>
   <si>
-    <t>Eduardo Sa</t>
-  </si>
-  <si>
-    <t>Fabio Verissimo de Matos</t>
-  </si>
-  <si>
-    <t>Rogerio Cavalieri</t>
-  </si>
-  <si>
-    <t>Natanael Henrique</t>
-  </si>
-  <si>
-    <t>Andrei Santana</t>
-  </si>
-  <si>
-    <t>Marcos Ferreira</t>
-  </si>
-  <si>
     <t>Gerson Ferreira Junior</t>
   </si>
   <si>
-    <t>Victor Rodrigues</t>
-  </si>
-  <si>
-    <t>Guilherme Castro</t>
-  </si>
-  <si>
     <t>Eduardo Dalhke</t>
   </si>
   <si>
-    <t>Marcio Anselmo</t>
-  </si>
-  <si>
     <t>Josenilton Fernandes</t>
   </si>
   <si>
     <t>Kader Antonio Román Stable</t>
   </si>
   <si>
-    <t>Leonardo Crispin de Oliveira</t>
-  </si>
-  <si>
     <t>Weslley Alves</t>
   </si>
   <si>
@@ -190,16 +118,64 @@
     <t>Jiromba Do Inferno</t>
   </si>
   <si>
-    <t>Vinicius Emidio</t>
-  </si>
-  <si>
-    <t>Rodrigo de Moraes</t>
-  </si>
-  <si>
-    <t>Leonardo Oliveira</t>
-  </si>
-  <si>
     <t>Vandersson Souza</t>
+  </si>
+  <si>
+    <t>F CAMARA - 30/05/19</t>
+  </si>
+  <si>
+    <t>Bruno Yudi Tiyoda</t>
+  </si>
+  <si>
+    <t>Pedro Madi Della Coletta</t>
+  </si>
+  <si>
+    <t>Laury Prado</t>
+  </si>
+  <si>
+    <t>Andressa C. Tavares</t>
+  </si>
+  <si>
+    <t>Jefferson Andrade</t>
+  </si>
+  <si>
+    <t>Daniel Silvério</t>
+  </si>
+  <si>
+    <t>Danilo Oliveira</t>
+  </si>
+  <si>
+    <t>José Luis Barbosa</t>
+  </si>
+  <si>
+    <t>Lucas Desiderio</t>
+  </si>
+  <si>
+    <t>Vitor Giamm</t>
+  </si>
+  <si>
+    <t>Adriano Mazucato</t>
+  </si>
+  <si>
+    <t>Diego Monteiro</t>
+  </si>
+  <si>
+    <t>rafael gallo</t>
+  </si>
+  <si>
+    <t>Rafael Petronilio</t>
+  </si>
+  <si>
+    <t>Edson Martins</t>
+  </si>
+  <si>
+    <t>Alexandre Salomão</t>
+  </si>
+  <si>
+    <t>Lucas Rodrigues</t>
+  </si>
+  <si>
+    <t>Jaylma Soares</t>
   </si>
 </sst>
 </file>
@@ -209,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +275,12 @@
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -413,22 +395,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,6 +418,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,371 +754,355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="16"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="16"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="16"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="16"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="16"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="15"/>
     </row>
     <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1318,8 +1287,8 @@
     <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A45:A60">
-    <sortCondition ref="A44"/>
+  <sortState ref="A5:A44">
+    <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -1328,29 +1297,49 @@
     <mergeCell ref="A45:B45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281227066/profile/"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://www.meetup.com/pt-BR/Spring-Univers/members/184323370/profile/"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.meetup.com/pt-BR/Spring-Univers/members/277357118/profile/"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://www.meetup.com/pt-BR/Spring-Univers/members/280826262/profile/"/>
-    <hyperlink ref="A17" r:id="rId5" display="https://www.meetup.com/pt-BR/Spring-Univers/members/240909126/profile/"/>
-    <hyperlink ref="A18" r:id="rId6" display="https://www.meetup.com/pt-BR/Spring-Univers/members/261597745/profile/"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.meetup.com/pt-BR/Spring-Univers/members/216792443/profile/"/>
-    <hyperlink ref="A23" r:id="rId8" display="https://www.meetup.com/pt-BR/Spring-Univers/members/268758037/profile/"/>
-    <hyperlink ref="A24" r:id="rId9" display="https://www.meetup.com/pt-BR/Spring-Univers/members/212791922/profile/"/>
-    <hyperlink ref="A25" r:id="rId10" display="https://www.meetup.com/pt-BR/Spring-Univers/members/227543746/profile/"/>
-    <hyperlink ref="A28" r:id="rId11" display="https://www.meetup.com/pt-BR/Spring-Univers/members/236655821/profile/"/>
-    <hyperlink ref="A29" r:id="rId12" display="https://www.meetup.com/pt-BR/Spring-Univers/members/269780870/profile/"/>
-    <hyperlink ref="A30" r:id="rId13" display="https://www.meetup.com/pt-BR/Spring-Univers/members/228146346/profile/"/>
-    <hyperlink ref="A31" r:id="rId14" display="https://www.meetup.com/pt-BR/Spring-Univers/members/241413647/profile/"/>
-    <hyperlink ref="A36" r:id="rId15" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252085943/profile/"/>
-    <hyperlink ref="A37" r:id="rId16" display="https://www.meetup.com/pt-BR/Spring-Univers/members/276305686/profile/"/>
-    <hyperlink ref="A39" r:id="rId17" display="https://www.meetup.com/pt-BR/Spring-Univers/members/199994173/profile/"/>
-    <hyperlink ref="A47" r:id="rId18" display="https://www.meetup.com/pt-BR/Spring-Univers/members/225014624/profile/"/>
-    <hyperlink ref="A53" r:id="rId19" display="https://www.meetup.com/pt-BR/Spring-Univers/members/235266412/profile/"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281683755/profile/"/>
+    <hyperlink ref="A36" r:id="rId2" display="https://www.meetup.com/pt-BR/Spring-Univers/members/282099006/profile/"/>
+    <hyperlink ref="A41" r:id="rId3" display="https://www.meetup.com/pt-BR/Spring-Univers/members/268758037/profile/"/>
+    <hyperlink ref="A28" r:id="rId4" display="https://www.meetup.com/pt-BR/Spring-Univers/members/232647266/profile/"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.meetup.com/pt-BR/Spring-Univers/members/231815771/profile/"/>
+    <hyperlink ref="A21" r:id="rId6" display="https://www.meetup.com/pt-BR/Spring-Univers/members/264539104/profile/"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.meetup.com/pt-BR/Spring-Univers/members/202338554/profile/"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.meetup.com/pt-BR/Spring-Univers/members/282029266/profile/"/>
+    <hyperlink ref="A24" r:id="rId9" display="https://www.meetup.com/pt-BR/Spring-Univers/members/223571900/profile/"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252085943/profile/"/>
+    <hyperlink ref="A43" r:id="rId11" display="https://www.meetup.com/pt-BR/Spring-Univers/members/225014624/profile/"/>
+    <hyperlink ref="A18" r:id="rId12" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281132464/profile/"/>
+    <hyperlink ref="A29" r:id="rId13" display="https://www.meetup.com/pt-BR/Spring-Univers/members/240909126/profile/"/>
+    <hyperlink ref="A23" r:id="rId14" display="https://www.meetup.com/pt-BR/Spring-Univers/members/261036473/profile/"/>
+    <hyperlink ref="A33" r:id="rId15" display="https://www.meetup.com/pt-BR/Spring-Univers/members/122247962/profile/"/>
+    <hyperlink ref="A30" r:id="rId16" display="https://www.meetup.com/pt-BR/Spring-Univers/members/273423123/profile/"/>
+    <hyperlink ref="A42" r:id="rId17" display="https://www.meetup.com/pt-BR/Spring-Univers/members/246075523/profile/"/>
+    <hyperlink ref="A5" r:id="rId18" display="https://www.meetup.com/pt-BR/Spring-Univers/members/203824039/profile/"/>
+    <hyperlink ref="A17" r:id="rId19" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252008200/profile/"/>
+    <hyperlink ref="A11" r:id="rId20" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252026282/profile/"/>
+    <hyperlink ref="A37" r:id="rId21" display="https://www.meetup.com/pt-BR/Spring-Univers/members/265809425/profile/"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281805609/profile/"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.meetup.com/pt-BR/Spring-Univers/members/279934692/profile/"/>
+    <hyperlink ref="A27" r:id="rId24" display="https://www.meetup.com/pt-BR/Spring-Univers/members/279929033/profile/"/>
+    <hyperlink ref="A34" r:id="rId25" display="https://www.meetup.com/pt-BR/Spring-Univers/members/276305686/profile/"/>
+    <hyperlink ref="A38" r:id="rId26" display="https://www.meetup.com/pt-BR/Spring-Univers/members/248791197/profile/"/>
+    <hyperlink ref="A40" r:id="rId27" display="https://www.meetup.com/pt-BR/Spring-Univers/members/235266412/profile/"/>
+    <hyperlink ref="A14" r:id="rId28" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281227066/profile/"/>
+    <hyperlink ref="A32" r:id="rId29" display="https://www.meetup.com/pt-BR/Spring-Univers/members/277357118/profile/"/>
+    <hyperlink ref="A15" r:id="rId30" display="https://www.meetup.com/pt-BR/Spring-Univers/members/277321607/profile/"/>
+    <hyperlink ref="A12" r:id="rId31" display="https://www.meetup.com/pt-BR/Spring-Univers/members/28348552/profile/"/>
+    <hyperlink ref="A39" r:id="rId32" display="https://www.meetup.com/pt-BR/Spring-Univers/members/265578301/profile/"/>
+    <hyperlink ref="A6" r:id="rId33" display="https://www.meetup.com/pt-BR/Spring-Univers/members/231229856/profile/"/>
+    <hyperlink ref="A19" r:id="rId34" display="https://www.meetup.com/pt-BR/Spring-Univers/members/120948232/profile/"/>
+    <hyperlink ref="A26" r:id="rId35" display="https://www.meetup.com/pt-BR/Spring-Univers/members/199994173/profile/"/>
+    <hyperlink ref="A16" r:id="rId36" display="https://www.meetup.com/pt-BR/Spring-Univers/members/216792443/profile/"/>
+    <hyperlink ref="A35" r:id="rId37" display="https://www.meetup.com/pt-BR/Spring-Univers/members/253747166/profile/"/>
+    <hyperlink ref="A31" r:id="rId38" display="https://www.meetup.com/pt-BR/Spring-Univers/members/254953321/profile/"/>
+    <hyperlink ref="A20" r:id="rId39" display="https://www.meetup.com/pt-BR/Spring-Univers/members/275898100/profile/"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -1381,1280 +1370,1284 @@
     <row r="1" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="B2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20">
         <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20">
         <f>B2+2</f>
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7">
+        <v>10</v>
+      </c>
+      <c r="K2" s="20">
         <f>B2+3</f>
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="21"/>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="21"/>
       <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H3" s="21"/>
       <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="22"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="22"/>
       <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20">
         <f>B6+1</f>
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20">
         <f>B6+2</f>
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="20">
         <f>B6+3</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="21"/>
       <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="21"/>
       <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="22"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="22"/>
       <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="22"/>
       <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
         <f>B10+1</f>
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20">
         <f>B10+2</f>
         <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="20">
         <f>B10+3</f>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="21"/>
       <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="21"/>
       <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="20">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="20">
         <f>B14+1</f>
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20">
         <f>B14+2</f>
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20">
         <f>B14+3</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="21"/>
       <c r="J15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="22"/>
       <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
         <f>B18+1</f>
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="20">
         <f>B18+2</f>
         <v>19</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="20">
         <f>B18+3</f>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H19" s="21"/>
       <c r="J19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
       <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="22"/>
       <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H20" s="22"/>
       <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7">
+        <v>10</v>
+      </c>
+      <c r="B22" s="20">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20">
         <f>B22+1</f>
         <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="20">
         <f>B22+2</f>
         <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7">
+        <v>10</v>
+      </c>
+      <c r="K22" s="20">
         <f>B22+3</f>
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B23" s="21"/>
       <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H23" s="21"/>
       <c r="J23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B24" s="22"/>
       <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="22"/>
       <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H24" s="22"/>
       <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7">
+        <v>10</v>
+      </c>
+      <c r="B26" s="20">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="20">
         <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="H26" s="20">
         <f>B26+2</f>
         <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7">
+        <v>10</v>
+      </c>
+      <c r="K26" s="20">
         <f>B26+3</f>
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H27" s="21"/>
       <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H28" s="22"/>
       <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7">
+        <v>10</v>
+      </c>
+      <c r="B30" s="20">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="E30" s="20">
         <f>B30+1</f>
         <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="H30" s="20">
         <f>B30+2</f>
         <v>31</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7">
+        <v>10</v>
+      </c>
+      <c r="K30" s="20">
         <f>B30+3</f>
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="21"/>
       <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E31" s="21"/>
       <c r="G31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H31" s="21"/>
       <c r="J31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E32" s="22"/>
       <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H32" s="22"/>
       <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="B34" s="20">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="E34" s="20">
         <f>B34+1</f>
         <v>34</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="7">
+        <v>10</v>
+      </c>
+      <c r="H34" s="20">
         <f>B34+2</f>
         <v>35</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7">
+        <v>10</v>
+      </c>
+      <c r="K34" s="20">
         <f>B34+3</f>
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B35" s="21"/>
       <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E35" s="21"/>
       <c r="G35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H35" s="21"/>
       <c r="J35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="22"/>
       <c r="D36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E36" s="22"/>
       <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="22"/>
       <c r="J36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="7">
+        <v>10</v>
+      </c>
+      <c r="B38" s="20">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="7">
+        <v>10</v>
+      </c>
+      <c r="E38" s="20">
         <f>B38+1</f>
         <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="7">
+        <v>10</v>
+      </c>
+      <c r="H38" s="20">
         <f>B38+2</f>
         <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7">
+        <v>10</v>
+      </c>
+      <c r="K38" s="20">
         <f>B38+3</f>
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B39" s="21"/>
       <c r="D39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E39" s="21"/>
       <c r="G39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="21"/>
       <c r="J39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B40" s="22"/>
       <c r="D40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E40" s="22"/>
       <c r="G40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H40" s="22"/>
       <c r="J40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="7">
+        <v>10</v>
+      </c>
+      <c r="B42" s="20">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="7">
+        <v>10</v>
+      </c>
+      <c r="E42" s="20">
         <f>B42+1</f>
         <v>42</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="7">
+        <v>10</v>
+      </c>
+      <c r="H42" s="20">
         <f>B42+2</f>
         <v>43</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="7">
+        <v>10</v>
+      </c>
+      <c r="K42" s="20">
         <f>B42+3</f>
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="21"/>
       <c r="D43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E43" s="21"/>
       <c r="G43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H43" s="21"/>
       <c r="J43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B44" s="22"/>
       <c r="D44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="G44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H44" s="22"/>
       <c r="J44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="7">
+        <v>10</v>
+      </c>
+      <c r="B46" s="20">
         <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7">
+        <v>10</v>
+      </c>
+      <c r="E46" s="20">
         <f>B46+1</f>
         <v>42</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="7">
+        <v>10</v>
+      </c>
+      <c r="H46" s="20">
         <f>B46+2</f>
         <v>43</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="7">
+        <v>10</v>
+      </c>
+      <c r="K46" s="20">
         <f>B46+3</f>
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B47" s="21"/>
       <c r="D47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E47" s="21"/>
       <c r="G47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H47" s="21"/>
       <c r="J47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B48" s="22"/>
       <c r="D48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E48" s="22"/>
       <c r="G48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H48" s="22"/>
       <c r="J48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K48" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="7">
+        <v>10</v>
+      </c>
+      <c r="B50" s="20">
         <v>45</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7">
+        <v>10</v>
+      </c>
+      <c r="E50" s="20">
         <f>B50+1</f>
         <v>46</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="7">
+        <v>10</v>
+      </c>
+      <c r="H50" s="20">
         <f>B50+2</f>
         <v>47</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="7">
+        <v>10</v>
+      </c>
+      <c r="K50" s="20">
         <f>B50+3</f>
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B51" s="21"/>
       <c r="D51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E51" s="21"/>
       <c r="G51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H51" s="21"/>
       <c r="J51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B52" s="22"/>
       <c r="D52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="G52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H52" s="22"/>
       <c r="J52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K52" s="22"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="7">
+        <v>10</v>
+      </c>
+      <c r="B54" s="20">
         <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="7">
+        <v>10</v>
+      </c>
+      <c r="E54" s="20">
         <f>B54+1</f>
         <v>50</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="7">
+        <v>10</v>
+      </c>
+      <c r="H54" s="20">
         <f>B54+2</f>
         <v>51</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="7">
+        <v>10</v>
+      </c>
+      <c r="K54" s="20">
         <f>B54+3</f>
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B55" s="21"/>
       <c r="D55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E55" s="21"/>
       <c r="G55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H55" s="21"/>
       <c r="J55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B56" s="22"/>
       <c r="D56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E56" s="22"/>
       <c r="G56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H56" s="22"/>
       <c r="J56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K56" s="22"/>
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="7">
+        <v>10</v>
+      </c>
+      <c r="B58" s="20">
         <v>53</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="7">
+        <v>10</v>
+      </c>
+      <c r="E58" s="20">
         <f>B58+1</f>
         <v>54</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="7">
+        <v>10</v>
+      </c>
+      <c r="H58" s="20">
         <f>B58+2</f>
         <v>55</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="7">
+        <v>10</v>
+      </c>
+      <c r="K58" s="20">
         <f>B58+3</f>
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="21"/>
       <c r="D59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E59" s="21"/>
       <c r="G59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H59" s="21"/>
       <c r="J59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="22"/>
       <c r="D60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E60" s="22"/>
       <c r="G60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H60" s="22"/>
       <c r="J60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K60" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="7">
+        <v>10</v>
+      </c>
+      <c r="B62" s="20">
         <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="7">
+        <v>10</v>
+      </c>
+      <c r="E62" s="20">
         <f>B62+1</f>
         <v>58</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="7">
+        <v>10</v>
+      </c>
+      <c r="H62" s="20">
         <f>B62+2</f>
         <v>59</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="7">
+        <v>10</v>
+      </c>
+      <c r="K62" s="20">
         <f>B62+3</f>
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B63" s="21"/>
       <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E63" s="21"/>
       <c r="G63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H63" s="21"/>
       <c r="J63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B64" s="22"/>
       <c r="D64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E64" s="22"/>
       <c r="G64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H64" s="22"/>
       <c r="J64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K64" s="22"/>
     </row>
     <row r="66" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="7">
+        <v>10</v>
+      </c>
+      <c r="B66" s="20">
         <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="7">
+        <v>10</v>
+      </c>
+      <c r="E66" s="20">
         <f>B66+1</f>
         <v>62</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="7">
+        <v>10</v>
+      </c>
+      <c r="H66" s="20">
         <f>B66+2</f>
         <v>63</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="7">
+        <v>10</v>
+      </c>
+      <c r="K66" s="20">
         <f>B66+3</f>
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B67" s="21"/>
       <c r="D67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E67" s="21"/>
       <c r="G67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H67" s="21"/>
       <c r="J67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B68" s="22"/>
       <c r="D68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E68" s="22"/>
       <c r="G68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H68" s="22"/>
       <c r="J68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K68" s="22"/>
     </row>
     <row r="70" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="7">
+        <v>10</v>
+      </c>
+      <c r="B70" s="20">
         <v>65</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="7">
+        <v>10</v>
+      </c>
+      <c r="E70" s="20">
         <f>B70+1</f>
         <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="7">
+        <v>10</v>
+      </c>
+      <c r="H70" s="20">
         <f>B70+2</f>
         <v>67</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="7">
+        <v>10</v>
+      </c>
+      <c r="K70" s="20">
         <f>B70+3</f>
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B71" s="21"/>
       <c r="D71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E71" s="21"/>
       <c r="G71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H71" s="21"/>
       <c r="J71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="D72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E72" s="22"/>
       <c r="G72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H72" s="22"/>
       <c r="J72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K72" s="22"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="7">
+        <v>10</v>
+      </c>
+      <c r="B74" s="20">
         <v>69</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="7">
+        <v>10</v>
+      </c>
+      <c r="E74" s="20">
         <f>B74+1</f>
         <v>70</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="7">
+        <v>10</v>
+      </c>
+      <c r="H74" s="20">
         <f>B74+2</f>
         <v>71</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="7">
+        <v>10</v>
+      </c>
+      <c r="K74" s="20">
         <f>B74+3</f>
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B75" s="21"/>
       <c r="D75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="E75" s="21"/>
       <c r="G75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H75" s="21"/>
       <c r="J75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B76" s="22"/>
       <c r="D76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="E76" s="22"/>
       <c r="G76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H76" s="22"/>
       <c r="J76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="K76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="K66:K68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="H2:H4"/>
@@ -2671,38 +2664,34 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="K18:K20"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="K66:K68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="K70:K72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2819,74 +2808,74 @@
   <sheetData>
     <row r="1" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="10">
+      <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="10">
+      <c r="D2" s="23">
         <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="10">
+      <c r="F2" s="23">
         <f>B2+2</f>
         <v>3</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="10">
+      <c r="H2" s="23">
         <f>B2+3</f>
         <v>4</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="23">
         <v>45</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="10">
+      <c r="L2" s="23">
         <f>J2+1</f>
         <v>46</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="10">
+      <c r="N2" s="23">
         <f>J2+2</f>
         <v>47</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="10">
+      <c r="P2" s="23">
         <f>J2+3</f>
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="23"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="10"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
@@ -2905,74 +2894,74 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="23">
         <v>5</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="10">
+      <c r="D6" s="23">
         <f>B6+1</f>
         <v>6</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10">
+      <c r="F6" s="23">
         <f>B6+2</f>
         <v>7</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="10">
+      <c r="H6" s="23">
         <f>B6+3</f>
         <v>8</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="23">
         <v>49</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="10">
+      <c r="L6" s="23">
         <f>J6+1</f>
         <v>50</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="10">
+      <c r="N6" s="23">
         <f>J6+2</f>
         <v>51</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="10">
+      <c r="P6" s="23">
         <f>J6+3</f>
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="10"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
@@ -2991,74 +2980,74 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="B10" s="23">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="10">
+      <c r="D10" s="23">
         <f>B10+1</f>
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="10">
+      <c r="F10" s="23">
         <f>B10+2</f>
         <v>11</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="10">
+      <c r="H10" s="23">
         <f>B10+3</f>
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="23">
         <v>53</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="10">
+      <c r="L10" s="23">
         <f>J10+1</f>
         <v>54</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="10">
+      <c r="N10" s="23">
         <f>J10+2</f>
         <v>55</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="10">
+      <c r="P10" s="23">
         <f>J10+3</f>
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="10"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
@@ -3077,74 +3066,74 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="B14" s="23">
         <v>13</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="10">
+      <c r="D14" s="23">
         <f>B14+1</f>
         <v>14</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="10">
+      <c r="F14" s="23">
         <f>B14+2</f>
         <v>15</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10">
+      <c r="H14" s="23">
         <f>B14+3</f>
         <v>16</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="23">
         <v>57</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="10">
+      <c r="L14" s="23">
         <f>J14+1</f>
         <v>58</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="10">
+      <c r="N14" s="23">
         <f>J14+2</f>
         <v>59</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="10">
+      <c r="P14" s="23">
         <f>J14+3</f>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="10"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
@@ -3163,74 +3152,74 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="B18" s="23">
         <v>17</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="10">
+      <c r="D18" s="23">
         <f>B18+1</f>
         <v>18</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="10">
+      <c r="F18" s="23">
         <f>B18+2</f>
         <v>19</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="10">
+      <c r="H18" s="23">
         <f>B18+3</f>
         <v>20</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="23">
         <v>61</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="10">
+      <c r="L18" s="23">
         <f>J18+1</f>
         <v>62</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="10">
+      <c r="N18" s="23">
         <f>J18+2</f>
         <v>63</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="10">
+      <c r="P18" s="23">
         <f>J18+3</f>
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="10"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6"/>
@@ -3249,74 +3238,74 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="B22" s="23">
         <v>21</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="10">
+      <c r="D22" s="23">
         <f>B22+1</f>
         <v>22</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="10">
+      <c r="F22" s="23">
         <f>B22+2</f>
         <v>23</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="10">
+      <c r="H22" s="23">
         <f>B22+3</f>
         <v>24</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="23">
         <v>65</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="10">
+      <c r="L22" s="23">
         <f>J22+1</f>
         <v>66</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="10">
+      <c r="N22" s="23">
         <f>J22+2</f>
         <v>67</v>
       </c>
       <c r="O22" s="6"/>
-      <c r="P22" s="10">
+      <c r="P22" s="23">
         <f>J22+3</f>
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="10"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
@@ -3335,74 +3324,74 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="B26" s="23">
         <v>25</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="10">
+      <c r="D26" s="23">
         <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="10">
+      <c r="F26" s="23">
         <f>B26+2</f>
         <v>27</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="10">
+      <c r="H26" s="23">
         <f>B26+3</f>
         <v>28</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="23">
         <v>69</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="10">
+      <c r="L26" s="23">
         <f>J26+1</f>
         <v>70</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="10">
+      <c r="N26" s="23">
         <f>J26+2</f>
         <v>71</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="10">
+      <c r="P26" s="23">
         <f>J26+3</f>
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="23"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="10"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="H28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6"/>
@@ -3421,74 +3410,74 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="B30" s="23">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="10">
+      <c r="D30" s="23">
         <f>B30+1</f>
         <v>30</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="10">
+      <c r="F30" s="23">
         <f>B30+2</f>
         <v>31</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <f>B30+3</f>
         <v>32</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="23">
         <v>73</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="10">
+      <c r="L30" s="23">
         <f>J30+1</f>
         <v>74</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="10">
+      <c r="N30" s="23">
         <f>J30+2</f>
         <v>75</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="10">
+      <c r="P30" s="23">
         <f>J30+3</f>
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="23"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="H32" s="23"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
@@ -3507,74 +3496,74 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="B34" s="23">
         <v>33</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="10">
+      <c r="D34" s="23">
         <f>B34+1</f>
         <v>34</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="10">
+      <c r="F34" s="23">
         <f>B34+2</f>
         <v>35</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="10">
+      <c r="H34" s="23">
         <f>B34+3</f>
         <v>36</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="23">
         <v>77</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="10">
+      <c r="L34" s="23">
         <f>J34+1</f>
         <v>78</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="10">
+      <c r="N34" s="23">
         <f>J34+2</f>
         <v>79</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="10">
+      <c r="P34" s="23">
         <f>J34+3</f>
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="H35" s="23"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="10"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="23"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="10"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
@@ -3593,74 +3582,74 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="B38" s="23">
         <v>37</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="10">
+      <c r="D38" s="23">
         <f>B38+1</f>
         <v>38</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="10">
+      <c r="F38" s="23">
         <f>B38+2</f>
         <v>39</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="10">
+      <c r="H38" s="23">
         <f>B38+3</f>
         <v>40</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="23">
         <v>81</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="10">
+      <c r="L38" s="23">
         <f>J38+1</f>
         <v>82</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="10">
+      <c r="N38" s="23">
         <f>J38+2</f>
         <v>83</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="P38" s="10">
+      <c r="P38" s="23">
         <f>J38+3</f>
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="H39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="10"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="H40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="10"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="6"/>
@@ -3679,78 +3668,154 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="B42" s="23">
         <v>41</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="10">
+      <c r="D42" s="23">
         <f>B42+1</f>
         <v>42</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="10">
+      <c r="F42" s="23">
         <f>B42+2</f>
         <v>43</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="10">
+      <c r="H42" s="23">
         <f>B42+3</f>
         <v>44</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="23">
         <v>85</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="10">
+      <c r="L42" s="23">
         <f>J42+1</f>
         <v>86</v>
       </c>
       <c r="M42" s="6"/>
-      <c r="N42" s="10">
+      <c r="N42" s="23">
         <f>J42+2</f>
         <v>87</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="P42" s="10">
+      <c r="P42" s="23">
         <f>J42+3</f>
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="H43" s="23"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="10"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="H44" s="23"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="10"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="N42:N44"/>
@@ -3763,82 +3828,6 @@
     <mergeCell ref="L38:L40"/>
     <mergeCell ref="N38:N40"/>
     <mergeCell ref="P38:P40"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="H38:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/documentacao/lista.xlsx
+++ b/documentacao/lista.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gleyson\git\springunivers\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opendigytal\springunivers\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CB34E-A520-4D90-B8E9-676C5509E7F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA" sheetId="1" r:id="rId1"/>
     <sheet name="SORTEIO" sheetId="2" r:id="rId2"/>
     <sheet name="NUMEROS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
@@ -413,22 +414,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,6 +437,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,374 +767,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="14" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="16"/>
-    </row>
-    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="16"/>
-    </row>
-    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="15"/>
     </row>
     <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1318,8 +1319,8 @@
     <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A45:A60">
-    <sortCondition ref="A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:A53">
+    <sortCondition ref="A46"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -1328,25 +1329,25 @@
     <mergeCell ref="A45:B45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281227066/profile/"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://www.meetup.com/pt-BR/Spring-Univers/members/184323370/profile/"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.meetup.com/pt-BR/Spring-Univers/members/277357118/profile/"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://www.meetup.com/pt-BR/Spring-Univers/members/280826262/profile/"/>
-    <hyperlink ref="A17" r:id="rId5" display="https://www.meetup.com/pt-BR/Spring-Univers/members/240909126/profile/"/>
-    <hyperlink ref="A18" r:id="rId6" display="https://www.meetup.com/pt-BR/Spring-Univers/members/261597745/profile/"/>
-    <hyperlink ref="A21" r:id="rId7" display="https://www.meetup.com/pt-BR/Spring-Univers/members/216792443/profile/"/>
-    <hyperlink ref="A23" r:id="rId8" display="https://www.meetup.com/pt-BR/Spring-Univers/members/268758037/profile/"/>
-    <hyperlink ref="A24" r:id="rId9" display="https://www.meetup.com/pt-BR/Spring-Univers/members/212791922/profile/"/>
-    <hyperlink ref="A25" r:id="rId10" display="https://www.meetup.com/pt-BR/Spring-Univers/members/227543746/profile/"/>
-    <hyperlink ref="A28" r:id="rId11" display="https://www.meetup.com/pt-BR/Spring-Univers/members/236655821/profile/"/>
-    <hyperlink ref="A29" r:id="rId12" display="https://www.meetup.com/pt-BR/Spring-Univers/members/269780870/profile/"/>
-    <hyperlink ref="A30" r:id="rId13" display="https://www.meetup.com/pt-BR/Spring-Univers/members/228146346/profile/"/>
-    <hyperlink ref="A31" r:id="rId14" display="https://www.meetup.com/pt-BR/Spring-Univers/members/241413647/profile/"/>
-    <hyperlink ref="A36" r:id="rId15" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252085943/profile/"/>
-    <hyperlink ref="A37" r:id="rId16" display="https://www.meetup.com/pt-BR/Spring-Univers/members/276305686/profile/"/>
-    <hyperlink ref="A39" r:id="rId17" display="https://www.meetup.com/pt-BR/Spring-Univers/members/199994173/profile/"/>
-    <hyperlink ref="A47" r:id="rId18" display="https://www.meetup.com/pt-BR/Spring-Univers/members/225014624/profile/"/>
-    <hyperlink ref="A53" r:id="rId19" display="https://www.meetup.com/pt-BR/Spring-Univers/members/235266412/profile/"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://www.meetup.com/pt-BR/Spring-Univers/members/281227066/profile/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.meetup.com/pt-BR/Spring-Univers/members/184323370/profile/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A30" r:id="rId3" display="https://www.meetup.com/pt-BR/Spring-Univers/members/277357118/profile/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.meetup.com/pt-BR/Spring-Univers/members/280826262/profile/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A29" r:id="rId5" display="https://www.meetup.com/pt-BR/Spring-Univers/members/240909126/profile/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://www.meetup.com/pt-BR/Spring-Univers/members/261597745/profile/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.meetup.com/pt-BR/Spring-Univers/members/216792443/profile/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A42" r:id="rId8" display="https://www.meetup.com/pt-BR/Spring-Univers/members/268758037/profile/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.meetup.com/pt-BR/Spring-Univers/members/212791922/profile/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://www.meetup.com/pt-BR/Spring-Univers/members/227543746/profile/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A41" r:id="rId11" display="https://www.meetup.com/pt-BR/Spring-Univers/members/236655821/profile/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A5" r:id="rId12" display="https://www.meetup.com/pt-BR/Spring-Univers/members/269780870/profile/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A40" r:id="rId13" display="https://www.meetup.com/pt-BR/Spring-Univers/members/228146346/profile/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A32" r:id="rId14" display="https://www.meetup.com/pt-BR/Spring-Univers/members/241413647/profile/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A10" r:id="rId15" display="https://www.meetup.com/pt-BR/Spring-Univers/members/252085943/profile/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A33" r:id="rId16" display="https://www.meetup.com/pt-BR/Spring-Univers/members/276305686/profile/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://www.meetup.com/pt-BR/Spring-Univers/members/199994173/profile/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A53" r:id="rId18" display="https://www.meetup.com/pt-BR/Spring-Univers/members/225014624/profile/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A51" r:id="rId19" display="https://www.meetup.com/pt-BR/Spring-Univers/members/235266412/profile/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1355,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1383,27 +1384,27 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="20">
         <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="20">
         <f>B2+2</f>
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="20">
         <f>B2+3</f>
         <v>4</v>
       </c>
@@ -1412,64 +1413,64 @@
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="21"/>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="21"/>
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="22"/>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="22"/>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="22"/>
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="20">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <f>B6+1</f>
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="20">
         <f>B6+2</f>
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="20">
         <f>B6+3</f>
         <v>8</v>
       </c>
@@ -1478,64 +1479,64 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="21"/>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="21"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="21"/>
       <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="22"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="22"/>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="22"/>
       <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="20">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="20">
         <f>B10+1</f>
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="20">
         <f>B10+2</f>
         <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="20">
         <f>B10+3</f>
         <v>12</v>
       </c>
@@ -1544,64 +1545,64 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="21"/>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="21"/>
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="21"/>
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="22"/>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="22"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="22"/>
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="20">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="20">
         <f>B14+1</f>
         <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="20">
         <f>B14+2</f>
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="20">
         <f>B14+3</f>
         <v>16</v>
       </c>
@@ -1610,64 +1611,64 @@
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="21"/>
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="21"/>
       <c r="J15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="22"/>
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="22"/>
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="22"/>
       <c r="J16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="20">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="20">
         <f>B18+1</f>
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="20">
         <f>B18+2</f>
         <v>19</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="20">
         <f>B18+3</f>
         <v>20</v>
       </c>
@@ -1676,64 +1677,64 @@
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="21"/>
       <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="21"/>
       <c r="G19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="21"/>
       <c r="J19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="22"/>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="22"/>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="22"/>
       <c r="J20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="20">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="20">
         <f>B22+1</f>
         <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="20">
         <f>B22+2</f>
         <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="20">
         <f>B22+3</f>
         <v>24</v>
       </c>
@@ -1742,64 +1743,64 @@
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="21"/>
       <c r="G23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="21"/>
       <c r="J23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="8"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="22"/>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="22"/>
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="22"/>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="20">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="20">
         <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="20">
         <f>B26+2</f>
         <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="20">
         <f>B26+3</f>
         <v>28</v>
       </c>
@@ -1808,64 +1809,64 @@
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="21"/>
       <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="21"/>
       <c r="J27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="8"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="22"/>
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="22"/>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="22"/>
       <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="20">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="20">
         <f>B30+1</f>
         <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="20">
         <f>B30+2</f>
         <v>31</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="20">
         <f>B30+3</f>
         <v>32</v>
       </c>
@@ -1874,64 +1875,64 @@
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="21"/>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="21"/>
       <c r="G31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="21"/>
       <c r="J31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="8"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="22"/>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="22"/>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="22"/>
       <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="20">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="20">
         <f>B34+1</f>
         <v>34</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="20">
         <f>B34+2</f>
         <v>35</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="20">
         <f>B34+3</f>
         <v>36</v>
       </c>
@@ -1940,64 +1941,64 @@
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="21"/>
       <c r="D35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="21"/>
       <c r="G35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="21"/>
       <c r="J35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="8"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="22"/>
       <c r="D36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="22"/>
       <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="22"/>
       <c r="J36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="20">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="20">
         <f>B38+1</f>
         <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="20">
         <f>B38+2</f>
         <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="20">
         <f>B38+3</f>
         <v>40</v>
       </c>
@@ -2006,64 +2007,64 @@
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="21"/>
       <c r="D39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="21"/>
       <c r="G39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="21"/>
       <c r="J39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="8"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="22"/>
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="22"/>
       <c r="G40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="22"/>
       <c r="J40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="9"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="20">
         <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="20">
         <f>B42+1</f>
         <v>42</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="20">
         <f>B42+2</f>
         <v>43</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="20">
         <f>B42+3</f>
         <v>44</v>
       </c>
@@ -2072,64 +2073,64 @@
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="21"/>
       <c r="D43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="21"/>
       <c r="G43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="21"/>
       <c r="J43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="8"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="22"/>
       <c r="D44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="22"/>
       <c r="G44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="22"/>
       <c r="J44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="20">
         <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="20">
         <f>B46+1</f>
         <v>42</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="20">
         <f>B46+2</f>
         <v>43</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="20">
         <f>B46+3</f>
         <v>44</v>
       </c>
@@ -2138,63 +2139,63 @@
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="21"/>
       <c r="D47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="21"/>
       <c r="G47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="21"/>
       <c r="J47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="8"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="22"/>
       <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="22"/>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="22"/>
       <c r="J48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="9"/>
+      <c r="K48" s="22"/>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="20">
         <v>45</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="20">
         <f>B50+1</f>
         <v>46</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="20">
         <f>B50+2</f>
         <v>47</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="20">
         <f>B50+3</f>
         <v>48</v>
       </c>
@@ -2203,63 +2204,63 @@
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="21"/>
       <c r="D51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="21"/>
       <c r="G51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="21"/>
       <c r="J51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="8"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="22"/>
       <c r="D52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="22"/>
       <c r="G52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="22"/>
       <c r="J52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="20">
         <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="20">
         <f>B54+1</f>
         <v>50</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="20">
         <f>B54+2</f>
         <v>51</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="20">
         <f>B54+3</f>
         <v>52</v>
       </c>
@@ -2268,63 +2269,63 @@
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="21"/>
       <c r="D55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="21"/>
       <c r="G55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="21"/>
       <c r="J55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="8"/>
+      <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="22"/>
       <c r="D56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="22"/>
       <c r="G56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="22"/>
       <c r="J56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="22"/>
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="20">
         <v>53</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="20">
         <f>B58+1</f>
         <v>54</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="20">
         <f>B58+2</f>
         <v>55</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="20">
         <f>B58+3</f>
         <v>56</v>
       </c>
@@ -2333,63 +2334,63 @@
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="21"/>
       <c r="D59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="21"/>
       <c r="G59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="21"/>
       <c r="J59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="8"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="22"/>
       <c r="D60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="22"/>
       <c r="G60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="22"/>
       <c r="J60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="20">
         <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="20">
         <f>B62+1</f>
         <v>58</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="20">
         <f>B62+2</f>
         <v>59</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="20">
         <f>B62+3</f>
         <v>60</v>
       </c>
@@ -2398,63 +2399,63 @@
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="21"/>
       <c r="D63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="21"/>
       <c r="G63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="21"/>
       <c r="J63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="8"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="22"/>
       <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="22"/>
       <c r="G64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="22"/>
       <c r="J64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="22"/>
     </row>
     <row r="66" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="20">
         <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="20">
         <f>B66+1</f>
         <v>62</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="20">
         <f>B66+2</f>
         <v>63</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="20">
         <f>B66+3</f>
         <v>64</v>
       </c>
@@ -2463,63 +2464,63 @@
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="21"/>
       <c r="D67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="21"/>
       <c r="G67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="21"/>
       <c r="J67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="8"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="22"/>
       <c r="D68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="22"/>
       <c r="G68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="22"/>
       <c r="J68" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="22"/>
     </row>
     <row r="70" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="20">
         <v>65</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="20">
         <f>B70+1</f>
         <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="20">
         <f>B70+2</f>
         <v>67</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="20">
         <f>B70+3</f>
         <v>68</v>
       </c>
@@ -2528,63 +2529,63 @@
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="21"/>
       <c r="D71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="21"/>
       <c r="G71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="21"/>
       <c r="J71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="8"/>
+      <c r="K71" s="21"/>
     </row>
     <row r="72" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="22"/>
       <c r="D72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="22"/>
       <c r="G72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="22"/>
       <c r="J72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="22"/>
     </row>
     <row r="74" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="20">
         <v>69</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="20">
         <f>B74+1</f>
         <v>70</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="20">
         <f>B74+2</f>
         <v>71</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="20">
         <f>B74+3</f>
         <v>72</v>
       </c>
@@ -2593,68 +2594,72 @@
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="21"/>
       <c r="D75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="21"/>
       <c r="G75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="21"/>
       <c r="J75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="8"/>
+      <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="22"/>
       <c r="D76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="22"/>
       <c r="G76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="22"/>
       <c r="J76" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="9"/>
+      <c r="K76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="K66:K68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="H2:H4"/>
@@ -2671,116 +2676,112 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="K18:K20"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="K66:K68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="K70:K72"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="J7" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="G11" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="G15" r:id="rId15"/>
-    <hyperlink ref="J15" r:id="rId16"/>
-    <hyperlink ref="A19" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="G19" r:id="rId19"/>
-    <hyperlink ref="J19" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="G23" r:id="rId23"/>
-    <hyperlink ref="J23" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="G27" r:id="rId27"/>
-    <hyperlink ref="J27" r:id="rId28"/>
-    <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="G31" r:id="rId31"/>
-    <hyperlink ref="J31" r:id="rId32"/>
-    <hyperlink ref="A35" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="G35" r:id="rId35"/>
-    <hyperlink ref="J35" r:id="rId36"/>
-    <hyperlink ref="A39" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="G39" r:id="rId39"/>
-    <hyperlink ref="J39" r:id="rId40"/>
-    <hyperlink ref="A43" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="G43" r:id="rId43"/>
-    <hyperlink ref="J43" r:id="rId44"/>
-    <hyperlink ref="A47" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="G47" r:id="rId47"/>
-    <hyperlink ref="J47" r:id="rId48"/>
-    <hyperlink ref="A51" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="G51" r:id="rId51"/>
-    <hyperlink ref="J51" r:id="rId52"/>
-    <hyperlink ref="A55" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="G55" r:id="rId55"/>
-    <hyperlink ref="J55" r:id="rId56"/>
-    <hyperlink ref="A59" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="G59" r:id="rId59"/>
-    <hyperlink ref="J59" r:id="rId60"/>
-    <hyperlink ref="A63" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="G63" r:id="rId63"/>
-    <hyperlink ref="J63" r:id="rId64"/>
-    <hyperlink ref="A67" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="G67" r:id="rId67"/>
-    <hyperlink ref="J67" r:id="rId68"/>
-    <hyperlink ref="A71" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="G71" r:id="rId71"/>
-    <hyperlink ref="J71" r:id="rId72"/>
-    <hyperlink ref="A75" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="G75" r:id="rId75"/>
-    <hyperlink ref="J75" r:id="rId76"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J19" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G23" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J23" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G27" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="J27" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="G31" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="J31" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G35" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J35" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G39" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="J39" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="G43" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="J43" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="G47" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="J47" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="G51" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="J51" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="G55" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="J55" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="G59" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="J59" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="G63" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="J63" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A67" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="G67" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="J67" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A71" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="G71" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="J71" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A75" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="G75" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="J75" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2789,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2819,74 +2820,74 @@
   <sheetData>
     <row r="1" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="10">
+      <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="10">
+      <c r="D2" s="23">
         <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="10">
+      <c r="F2" s="23">
         <f>B2+2</f>
         <v>3</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="10">
+      <c r="H2" s="23">
         <f>B2+3</f>
         <v>4</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="23">
         <v>45</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="10">
+      <c r="L2" s="23">
         <f>J2+1</f>
         <v>46</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="10">
+      <c r="N2" s="23">
         <f>J2+2</f>
         <v>47</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="10">
+      <c r="P2" s="23">
         <f>J2+3</f>
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="23"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="10"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
@@ -2905,74 +2906,74 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="23">
         <v>5</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="10">
+      <c r="D6" s="23">
         <f>B6+1</f>
         <v>6</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10">
+      <c r="F6" s="23">
         <f>B6+2</f>
         <v>7</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="10">
+      <c r="H6" s="23">
         <f>B6+3</f>
         <v>8</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="23">
         <v>49</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="10">
+      <c r="L6" s="23">
         <f>J6+1</f>
         <v>50</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="10">
+      <c r="N6" s="23">
         <f>J6+2</f>
         <v>51</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="10">
+      <c r="P6" s="23">
         <f>J6+3</f>
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="10"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
@@ -2991,74 +2992,74 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="B10" s="23">
         <v>9</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="10">
+      <c r="D10" s="23">
         <f>B10+1</f>
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="10">
+      <c r="F10" s="23">
         <f>B10+2</f>
         <v>11</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="10">
+      <c r="H10" s="23">
         <f>B10+3</f>
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="23">
         <v>53</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="10">
+      <c r="L10" s="23">
         <f>J10+1</f>
         <v>54</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="10">
+      <c r="N10" s="23">
         <f>J10+2</f>
         <v>55</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="10">
+      <c r="P10" s="23">
         <f>J10+3</f>
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="10"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
@@ -3077,74 +3078,74 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="B14" s="23">
         <v>13</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="10">
+      <c r="D14" s="23">
         <f>B14+1</f>
         <v>14</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="10">
+      <c r="F14" s="23">
         <f>B14+2</f>
         <v>15</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10">
+      <c r="H14" s="23">
         <f>B14+3</f>
         <v>16</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="23">
         <v>57</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="10">
+      <c r="L14" s="23">
         <f>J14+1</f>
         <v>58</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="10">
+      <c r="N14" s="23">
         <f>J14+2</f>
         <v>59</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="10">
+      <c r="P14" s="23">
         <f>J14+3</f>
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="10"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
@@ -3163,74 +3164,74 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="B18" s="23">
         <v>17</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="10">
+      <c r="D18" s="23">
         <f>B18+1</f>
         <v>18</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="10">
+      <c r="F18" s="23">
         <f>B18+2</f>
         <v>19</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="10">
+      <c r="H18" s="23">
         <f>B18+3</f>
         <v>20</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="23">
         <v>61</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="10">
+      <c r="L18" s="23">
         <f>J18+1</f>
         <v>62</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="10">
+      <c r="N18" s="23">
         <f>J18+2</f>
         <v>63</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="10">
+      <c r="P18" s="23">
         <f>J18+3</f>
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="10"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6"/>
@@ -3249,74 +3250,74 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="B22" s="23">
         <v>21</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="10">
+      <c r="D22" s="23">
         <f>B22+1</f>
         <v>22</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="10">
+      <c r="F22" s="23">
         <f>B22+2</f>
         <v>23</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="10">
+      <c r="H22" s="23">
         <f>B22+3</f>
         <v>24</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="23">
         <v>65</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="10">
+      <c r="L22" s="23">
         <f>J22+1</f>
         <v>66</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="10">
+      <c r="N22" s="23">
         <f>J22+2</f>
         <v>67</v>
       </c>
       <c r="O22" s="6"/>
-      <c r="P22" s="10">
+      <c r="P22" s="23">
         <f>J22+3</f>
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="10"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
@@ -3335,74 +3336,74 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="B26" s="23">
         <v>25</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="10">
+      <c r="D26" s="23">
         <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="10">
+      <c r="F26" s="23">
         <f>B26+2</f>
         <v>27</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="10">
+      <c r="H26" s="23">
         <f>B26+3</f>
         <v>28</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="23">
         <v>69</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="10">
+      <c r="L26" s="23">
         <f>J26+1</f>
         <v>70</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="10">
+      <c r="N26" s="23">
         <f>J26+2</f>
         <v>71</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="10">
+      <c r="P26" s="23">
         <f>J26+3</f>
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="H27" s="23"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="10"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="H28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6"/>
@@ -3421,74 +3422,74 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="B30" s="23">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="10">
+      <c r="D30" s="23">
         <f>B30+1</f>
         <v>30</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="10">
+      <c r="F30" s="23">
         <f>B30+2</f>
         <v>31</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="10">
+      <c r="H30" s="23">
         <f>B30+3</f>
         <v>32</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="23">
         <v>73</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="10">
+      <c r="L30" s="23">
         <f>J30+1</f>
         <v>74</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="10">
+      <c r="N30" s="23">
         <f>J30+2</f>
         <v>75</v>
       </c>
       <c r="O30" s="6"/>
-      <c r="P30" s="10">
+      <c r="P30" s="23">
         <f>J30+3</f>
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="23"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="H32" s="23"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
@@ -3507,74 +3508,74 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="B34" s="23">
         <v>33</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="10">
+      <c r="D34" s="23">
         <f>B34+1</f>
         <v>34</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="10">
+      <c r="F34" s="23">
         <f>B34+2</f>
         <v>35</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="10">
+      <c r="H34" s="23">
         <f>B34+3</f>
         <v>36</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="23">
         <v>77</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="10">
+      <c r="L34" s="23">
         <f>J34+1</f>
         <v>78</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="10">
+      <c r="N34" s="23">
         <f>J34+2</f>
         <v>79</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="10">
+      <c r="P34" s="23">
         <f>J34+3</f>
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="H35" s="23"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="10"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="23"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="10"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
@@ -3593,74 +3594,74 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="B38" s="23">
         <v>37</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="10">
+      <c r="D38" s="23">
         <f>B38+1</f>
         <v>38</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="10">
+      <c r="F38" s="23">
         <f>B38+2</f>
         <v>39</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="10">
+      <c r="H38" s="23">
         <f>B38+3</f>
         <v>40</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="23">
         <v>81</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="10">
+      <c r="L38" s="23">
         <f>J38+1</f>
         <v>82</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="10">
+      <c r="N38" s="23">
         <f>J38+2</f>
         <v>83</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="P38" s="10">
+      <c r="P38" s="23">
         <f>J38+3</f>
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="H39" s="23"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="10"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="H40" s="23"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="10"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="6"/>
@@ -3679,78 +3680,154 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="B42" s="23">
         <v>41</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="10">
+      <c r="D42" s="23">
         <f>B42+1</f>
         <v>42</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="10">
+      <c r="F42" s="23">
         <f>B42+2</f>
         <v>43</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="10">
+      <c r="H42" s="23">
         <f>B42+3</f>
         <v>44</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="23">
         <v>85</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="10">
+      <c r="L42" s="23">
         <f>J42+1</f>
         <v>86</v>
       </c>
       <c r="M42" s="6"/>
-      <c r="N42" s="10">
+      <c r="N42" s="23">
         <f>J42+2</f>
         <v>87</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="P42" s="10">
+      <c r="P42" s="23">
         <f>J42+3</f>
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="H43" s="23"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="10"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="H44" s="23"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="10"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="P30:P32"/>
     <mergeCell ref="J42:J44"/>
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="N42:N44"/>
@@ -3763,82 +3840,6 @@
     <mergeCell ref="L38:L40"/>
     <mergeCell ref="N38:N40"/>
     <mergeCell ref="P38:P40"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="H38:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
